--- a/Script.xlsx
+++ b/Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tde\Desktop\College\PsycoPy\Combined Expirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tde\Desktop\College\PsycoPy\Paige Program Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821F270-8513-4369-9386-2A9190A37A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32DF3F-7BD1-445B-99AE-F52EDB2E7A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Order</t>
   </si>
@@ -119,16 +119,19 @@
     <t>Reinforcement_Variable</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>DRO</t>
+  </si>
+  <si>
+    <t>ComINT</t>
   </si>
 </sst>
 </file>
@@ -522,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -534,7 +537,7 @@
     <col min="1" max="1" width="20.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,94 +551,130 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="1"/>
-    </row>
-    <row r="22" spans="10:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="10:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="10:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J24" s="1"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="22" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -650,18 +689,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,6 +818,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -789,14 +836,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Script.xlsx
+++ b/Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tde\Desktop\College\PsycoPy\Paige Program Version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tde\Desktop\College\PsycoPy\Two File Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32DF3F-7BD1-445B-99AE-F52EDB2E7A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF2627C-BE18-4865-87E6-D674872C1F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,42 +97,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Order</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Comission_Integrity</t>
-  </si>
-  <si>
-    <t>Omission_Integrity</t>
-  </si>
-  <si>
-    <t>Reinforcement_Schedule</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Reinforcement_Variable</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>Intervention</t>
-  </si>
-  <si>
-    <t>DRO</t>
-  </si>
-  <si>
-    <t>ComINT</t>
+    <t>PhaseName</t>
+  </si>
+  <si>
+    <t>Reset_PointsTF</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>DRO80100</t>
+  </si>
+  <si>
+    <t>Button_1</t>
+  </si>
+  <si>
+    <t>Button_2</t>
+  </si>
+  <si>
+    <t>Button_3</t>
+  </si>
+  <si>
+    <t>Button_4</t>
+  </si>
+  <si>
+    <t>Button_5</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>BackgroundColor</t>
   </si>
 </sst>
 </file>
@@ -525,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="59" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -537,144 +544,135 @@
     <col min="1" max="1" width="20.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L15" s="1"/>
-    </row>
-    <row r="22" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="11:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="1"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="22" spans="13:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="13:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="13:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -689,21 +687,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -817,15 +806,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -840,7 +830,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -854,4 +844,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>